--- a/initial_values.xlsx
+++ b/initial_values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AA0802-8014-4AE6-B8E3-D3CC2D9D53D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04262338-8EC0-4306-AC31-B7A4BEA588D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A28E8E1A-30D2-4C17-9743-36A8477F2F04}"/>
   </bookViews>
@@ -376,13 +376,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,7 +702,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,13 +712,13 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
     <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -885,25 +887,27 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>230000000</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4">
-        <v>43.2</v>
+        <v>30.2</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <f>F4*($N$2-H4)</f>
+        <v>6164000000</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="L4">
-        <v>10000000</v>
+        <f>ABS(J4)*1.5</f>
+        <v>9246000000</v>
       </c>
       <c r="M4" t="s">
         <v>9</v>
@@ -915,7 +919,7 @@
         <v>52</v>
       </c>
       <c r="P4">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="Q4" t="s">
         <v>53</v>
@@ -935,31 +939,33 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>11550</v>
+        <v>9240</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="H5">
-        <v>121</v>
+        <v>95.52</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <f t="shared" ref="J5:J12" si="0">F5*($N$2-H5)</f>
+        <v>-1155599999.9999998</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
       <c r="L5">
-        <v>1000000</v>
+        <f>ABS(J5)*1.5</f>
+        <v>1733399999.9999995</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
@@ -971,7 +977,7 @@
         <v>52</v>
       </c>
       <c r="P5">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="Q5" t="s">
         <v>53</v>
@@ -991,31 +997,33 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>11550</v>
+        <v>13860</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="H6">
-        <v>70</v>
+        <v>61.6</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-138000000.00000003</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
       <c r="L6">
-        <v>1000000</v>
+        <f t="shared" ref="L6:L12" si="1">ABS(J6)*1.5</f>
+        <v>207000000.00000006</v>
       </c>
       <c r="M6" t="s">
         <v>9</v>
@@ -1053,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>133000000</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -1065,13 +1073,15 @@
         <v>17</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6542235420</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
       <c r="L7">
-        <v>1000000</v>
+        <f t="shared" si="1"/>
+        <v>9813353130</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
@@ -1109,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -1121,13 +1131,15 @@
         <v>17</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>627000000</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
       </c>
       <c r="L8">
-        <v>1000000</v>
+        <f t="shared" si="1"/>
+        <v>940500000</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -1165,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>37000000</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -1177,13 +1189,15 @@
         <v>17</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2109000000</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
       <c r="L9">
-        <v>100000</v>
+        <f t="shared" si="1"/>
+        <v>3163500000</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -1221,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -1233,13 +1247,15 @@
         <v>17</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1140000000</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
       <c r="L10">
-        <v>10000</v>
+        <f t="shared" si="1"/>
+        <v>1710000000</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -1277,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>27000000</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1289,13 +1305,15 @@
         <v>17</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1539000000</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
       </c>
       <c r="L11">
-        <v>10000</v>
+        <f t="shared" si="1"/>
+        <v>2308500000</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -1332,8 +1350,9 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="F12" s="4">
+        <f>H2-SUM(F4:F11)</f>
+        <v>62000000</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1345,13 +1364,15 @@
         <v>17</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-3906000000</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
       <c r="L12">
-        <v>10000</v>
+        <f t="shared" si="1"/>
+        <v>5859000000</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -1519,7 +1540,7 @@
       <c r="A23" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="3"/>
+      <c r="G27" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/initial_values.xlsx
+++ b/initial_values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04262338-8EC0-4306-AC31-B7A4BEA588D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329CE7D-F0A1-4261-83BF-B4EC743EC1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A28E8E1A-30D2-4C17-9743-36A8477F2F04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A28E8E1A-30D2-4C17-9743-36A8477F2F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="138">
   <si>
     <t>Government</t>
   </si>
@@ -286,30 +286,6 @@
     <t>Electricity_cost</t>
   </si>
   <si>
-    <t>Producer 5</t>
-  </si>
-  <si>
-    <t>agent10</t>
-  </si>
-  <si>
-    <t>Producer 6</t>
-  </si>
-  <si>
-    <t>Producer 7</t>
-  </si>
-  <si>
-    <t>Producer 8</t>
-  </si>
-  <si>
-    <t>agent11</t>
-  </si>
-  <si>
-    <t>agent12</t>
-  </si>
-  <si>
-    <t>agent13</t>
-  </si>
-  <si>
     <t>Tax</t>
   </si>
   <si>
@@ -331,10 +307,151 @@
     <t>Electricity_cost_pure</t>
   </si>
   <si>
-    <t>agent14</t>
-  </si>
-  <si>
-    <t>Producer 9</t>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Variable 9</t>
+  </si>
+  <si>
+    <t>Value 9</t>
+  </si>
+  <si>
+    <t>Variable 10</t>
+  </si>
+  <si>
+    <t>Value 10</t>
+  </si>
+  <si>
+    <t>Variable 11</t>
+  </si>
+  <si>
+    <t>Value 11</t>
+  </si>
+  <si>
+    <t>Payback</t>
+  </si>
+  <si>
+    <t>Hydrogen_cap</t>
+  </si>
+  <si>
+    <t>Hydrogen_in</t>
+  </si>
+  <si>
+    <t>Hydrogen_out</t>
+  </si>
+  <si>
+    <t>Hydrogen_eff</t>
+  </si>
+  <si>
+    <t>Variable 12</t>
+  </si>
+  <si>
+    <t>Value 12</t>
+  </si>
+  <si>
+    <t>Variable 13</t>
+  </si>
+  <si>
+    <t>Value 13</t>
+  </si>
+  <si>
+    <t>Increased_power</t>
+  </si>
+  <si>
+    <t>Irr</t>
+  </si>
+  <si>
+    <t>Variable 14</t>
+  </si>
+  <si>
+    <t>Value 14</t>
+  </si>
+  <si>
+    <t>Irr prognose</t>
+  </si>
+  <si>
+    <t>Variable 15</t>
+  </si>
+  <si>
+    <t>Value 15</t>
+  </si>
+  <si>
+    <t>Installed_power_initial</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Gas_CT</t>
+  </si>
+  <si>
+    <t>Gas_CC</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>gas_ct</t>
+  </si>
+  <si>
+    <t>gas_cc</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>consumer_1</t>
+  </si>
+  <si>
+    <t>consumer_2</t>
+  </si>
+  <si>
+    <t>consumer_3</t>
   </si>
 </sst>
 </file>
@@ -699,39 +816,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0380A2-B213-4B4F-85FD-F637753ECF7D}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -786,19 +910,61 @@
       <c r="R1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
-        <v>10682400000</v>
+      <c r="D2">
+        <v>5000000000</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -807,7 +973,7 @@
         <v>581064000</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3">
         <v>580000000</v>
@@ -816,20 +982,20 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <f>SUM(D4:D12)</f>
+        <f>SUM(F4:F12)</f>
         <v>142670</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L2">
         <v>150.35</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="N2">
-        <v>57</v>
+        <v>42.31</v>
       </c>
       <c r="O2" t="s">
         <v>81</v>
@@ -838,12 +1004,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -855,7 +1021,7 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>0.05</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>50</v>
@@ -870,547 +1036,916 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>48320</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>48320</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>230000000</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>30.2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4">
+        <v>0.43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
         <v>17</v>
       </c>
-      <c r="J4">
-        <f>F4*($N$2-H4)</f>
-        <v>6164000000</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
         <v>12</v>
       </c>
-      <c r="L4">
-        <f>ABS(J4)*1.5</f>
-        <v>9246000000</v>
-      </c>
-      <c r="M4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4">
-        <v>0.43</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z12" si="0">ABS(X4)*1.5</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>9240</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>9240</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>30000000</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>95.52</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5">
+        <v>0.4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
         <v>17</v>
       </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J12" si="0">F5*($N$2-H5)</f>
-        <v>-1155599999.9999998</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
         <v>12</v>
       </c>
-      <c r="L5">
-        <f>ABS(J5)*1.5</f>
-        <v>1733399999.9999995</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5">
-        <v>0.4</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>13860</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>13860</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>30000000</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>61.6</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>17</v>
       </c>
-      <c r="J6">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6">
         <f t="shared" si="0"/>
-        <v>-138000000.00000003</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L12" si="1">ABS(J6)*1.5</f>
-        <v>207000000.00000006</v>
-      </c>
-      <c r="M6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>20430</v>
       </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>20430</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>133000000</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>7.8102600000000004</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7">
+        <v>0.35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
         <v>17</v>
       </c>
-      <c r="J7">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>90</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>97</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7">
         <f t="shared" si="0"/>
-        <v>6542235420</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>9813353130</v>
-      </c>
-      <c r="M7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7">
-        <v>0.35</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D8">
         <v>10570</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>10570</v>
+      </c>
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>11000000</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8">
+        <v>0.15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
         <v>17</v>
       </c>
-      <c r="J8">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>90</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>97</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="0"/>
-        <v>627000000</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>940500000</v>
-      </c>
-      <c r="M8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8">
-        <v>0.15</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D9">
         <v>25700</v>
       </c>
       <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>25700</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>37000000</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9">
+        <v>0.5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
         <v>17</v>
       </c>
-      <c r="J9">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9">
         <f t="shared" si="0"/>
-        <v>2109000000</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>3163500000</v>
-      </c>
-      <c r="M9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9">
-        <v>0.5</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>53</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D10">
         <v>5340</v>
       </c>
       <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>5340</v>
+      </c>
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>20000000</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>16</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10">
+        <v>0.7</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
         <v>17</v>
       </c>
-      <c r="J10">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>90</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>89</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="0"/>
-        <v>1140000000</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>1710000000</v>
-      </c>
-      <c r="M10" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10">
-        <v>0.7</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>53</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>4010</v>
       </c>
       <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>4010</v>
+      </c>
+      <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>27000000</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11">
+        <v>6.1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11">
+        <v>0.35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
         <v>17</v>
       </c>
-      <c r="J11">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>97</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11">
         <f t="shared" si="0"/>
-        <v>1539000000</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>2308500000</v>
-      </c>
-      <c r="M11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11">
-        <v>0.35</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>53</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>5200</v>
       </c>
       <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>5200</v>
+      </c>
+      <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="4">
-        <f>H2-SUM(F4:F11)</f>
+      <c r="H12" s="4">
+        <f>H2-SUM(H4:H11)</f>
         <v>62000000</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>120</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12">
+        <v>0.3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>17</v>
       </c>
-      <c r="J12">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>97</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>89</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12">
         <f t="shared" si="0"/>
-        <v>-3906000000</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>5859000000</v>
-      </c>
-      <c r="M12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12">
-        <v>0.3</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>53</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F13">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>48</v>
@@ -1422,45 +1957,69 @@
         <v>47</v>
       </c>
       <c r="J13">
-        <v>0.98699999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L13">
         <v>40000</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="N13">
         <v>7000</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="P13">
         <v>7000</v>
       </c>
       <c r="Q13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="R13">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13">
+        <v>10000</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V13">
+        <v>100</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X13">
+        <v>100</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14">
-        <v>291150000</v>
+        <v>296169764</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -1475,18 +2034,18 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15">
-        <v>136723000</v>
+        <v>139080132</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -1501,18 +2060,18 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16">
-        <v>152127000</v>
+        <v>154750103</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
